--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.173533</v>
+        <v>0.3877983333333333</v>
       </c>
       <c r="H2">
-        <v>0.520599</v>
+        <v>1.163395</v>
       </c>
       <c r="I2">
-        <v>0.1283087756864508</v>
+        <v>0.233823660346862</v>
       </c>
       <c r="J2">
-        <v>0.1283087756864508</v>
+        <v>0.233823660346862</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.03141733333333333</v>
+        <v>0.7354923333333333</v>
       </c>
       <c r="N2">
-        <v>0.094252</v>
+        <v>2.206477</v>
       </c>
       <c r="O2">
-        <v>0.03950070492069852</v>
+        <v>0.9040737623709638</v>
       </c>
       <c r="P2">
-        <v>0.03950070492069852</v>
+        <v>0.9040737623709638</v>
       </c>
       <c r="Q2">
-        <v>0.005451944105333333</v>
+        <v>0.2852227010461111</v>
       </c>
       <c r="R2">
-        <v>0.04906749694800001</v>
+        <v>2.567004309415</v>
       </c>
       <c r="S2">
-        <v>0.00506828708712659</v>
+        <v>0.2113938363411379</v>
       </c>
       <c r="T2">
-        <v>0.00506828708712659</v>
+        <v>0.2113938363411379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.173533</v>
+        <v>0.3877983333333333</v>
       </c>
       <c r="H3">
-        <v>0.520599</v>
+        <v>1.163395</v>
       </c>
       <c r="I3">
-        <v>0.1283087756864508</v>
+        <v>0.233823660346862</v>
       </c>
       <c r="J3">
-        <v>0.1283087756864508</v>
+        <v>0.233823660346862</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.7354923333333333</v>
+        <v>0.078039</v>
       </c>
       <c r="N3">
-        <v>2.206477</v>
+        <v>0.234117</v>
       </c>
       <c r="O3">
-        <v>0.9247272937583086</v>
+        <v>0.09592623762903621</v>
       </c>
       <c r="P3">
-        <v>0.9247272937583086</v>
+        <v>0.09592623762903621</v>
       </c>
       <c r="Q3">
-        <v>0.1276321910803334</v>
+        <v>0.030263394135</v>
       </c>
       <c r="R3">
-        <v>1.148689719723</v>
+        <v>0.272370547215</v>
       </c>
       <c r="S3">
-        <v>0.1186506269059735</v>
+        <v>0.02242982400572413</v>
       </c>
       <c r="T3">
-        <v>0.1186506269059735</v>
+        <v>0.02242982400572414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.173533</v>
+        <v>0.8694783333333334</v>
       </c>
       <c r="H4">
-        <v>0.520599</v>
+        <v>2.608435</v>
       </c>
       <c r="I4">
-        <v>0.1283087756864508</v>
+        <v>0.5242534302424087</v>
       </c>
       <c r="J4">
-        <v>0.1283087756864508</v>
+        <v>0.5242534302424087</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.009356666666666666</v>
+        <v>0.7354923333333333</v>
       </c>
       <c r="N4">
-        <v>0.02807</v>
+        <v>2.206477</v>
       </c>
       <c r="O4">
-        <v>0.01176404518868573</v>
+        <v>0.9040737623709638</v>
       </c>
       <c r="P4">
-        <v>0.01176404518868573</v>
+        <v>0.9040737623709638</v>
       </c>
       <c r="Q4">
-        <v>0.001623690436666667</v>
+        <v>0.6394946481661111</v>
       </c>
       <c r="R4">
-        <v>0.01461321393</v>
+        <v>5.755451833495</v>
       </c>
       <c r="S4">
-        <v>0.001509430235280348</v>
+        <v>0.473963771115138</v>
       </c>
       <c r="T4">
-        <v>0.001509430235280348</v>
+        <v>0.473963771115138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,25 +714,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.173533</v>
+        <v>0.8694783333333334</v>
       </c>
       <c r="H5">
-        <v>0.520599</v>
+        <v>2.608435</v>
       </c>
       <c r="I5">
-        <v>0.1283087756864508</v>
+        <v>0.5242534302424087</v>
       </c>
       <c r="J5">
-        <v>0.1283087756864508</v>
+        <v>0.5242534302424087</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,33 +741,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.019095</v>
+        <v>0.078039</v>
       </c>
       <c r="N5">
-        <v>0.057285</v>
+        <v>0.234117</v>
       </c>
       <c r="O5">
-        <v>0.02400795613230717</v>
+        <v>0.09592623762903621</v>
       </c>
       <c r="P5">
-        <v>0.02400795613230716</v>
+        <v>0.09592623762903621</v>
       </c>
       <c r="Q5">
-        <v>0.003313612635000001</v>
+        <v>0.067853219655</v>
       </c>
       <c r="R5">
-        <v>0.029822513715</v>
+        <v>0.6106789768949999</v>
       </c>
       <c r="S5">
-        <v>0.003080431458070351</v>
+        <v>0.05028965912727065</v>
       </c>
       <c r="T5">
-        <v>0.003080431458070351</v>
+        <v>0.05028965912727065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8694783333333334</v>
+        <v>0.2704893333333334</v>
       </c>
       <c r="H6">
-        <v>2.608435</v>
+        <v>0.8114680000000001</v>
       </c>
       <c r="I6">
-        <v>0.6428846411685141</v>
+        <v>0.1630920005796376</v>
       </c>
       <c r="J6">
-        <v>0.6428846411685142</v>
+        <v>0.1630920005796376</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03141733333333333</v>
+        <v>0.7354923333333333</v>
       </c>
       <c r="N6">
-        <v>0.094252</v>
+        <v>2.206477</v>
       </c>
       <c r="O6">
-        <v>0.03950070492069852</v>
+        <v>0.9040737623709638</v>
       </c>
       <c r="P6">
-        <v>0.03950070492069852</v>
+        <v>0.9040737623709638</v>
       </c>
       <c r="Q6">
-        <v>0.02731669062444445</v>
+        <v>0.1989428309151111</v>
       </c>
       <c r="R6">
-        <v>0.24585021562</v>
+        <v>1.790485478236</v>
       </c>
       <c r="S6">
-        <v>0.02539439650884663</v>
+        <v>0.1474471985766403</v>
       </c>
       <c r="T6">
-        <v>0.02539439650884663</v>
+        <v>0.1474471985766403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8694783333333334</v>
+        <v>0.2704893333333334</v>
       </c>
       <c r="H7">
-        <v>2.608435</v>
+        <v>0.8114680000000001</v>
       </c>
       <c r="I7">
-        <v>0.6428846411685141</v>
+        <v>0.1630920005796376</v>
       </c>
       <c r="J7">
-        <v>0.6428846411685142</v>
+        <v>0.1630920005796376</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.7354923333333333</v>
+        <v>0.078039</v>
       </c>
       <c r="N7">
-        <v>2.206477</v>
+        <v>0.234117</v>
       </c>
       <c r="O7">
-        <v>0.9247272937583086</v>
+        <v>0.09592623762903621</v>
       </c>
       <c r="P7">
-        <v>0.9247272937583086</v>
+        <v>0.09592623762903621</v>
       </c>
       <c r="Q7">
-        <v>0.6394946481661111</v>
+        <v>0.021108717084</v>
       </c>
       <c r="R7">
-        <v>5.755451833495</v>
+        <v>0.189978453756</v>
       </c>
       <c r="S7">
-        <v>0.5944929744265414</v>
+        <v>0.01564480200299723</v>
       </c>
       <c r="T7">
-        <v>0.5944929744265415</v>
+        <v>0.01564480200299723</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1307416666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.392225</v>
+      </c>
+      <c r="I8">
+        <v>0.07883090883109173</v>
+      </c>
+      <c r="J8">
+        <v>0.07883090883109173</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.8694783333333334</v>
-      </c>
-      <c r="H8">
-        <v>2.608435</v>
-      </c>
-      <c r="I8">
-        <v>0.6428846411685141</v>
-      </c>
-      <c r="J8">
-        <v>0.6428846411685142</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.009356666666666666</v>
+        <v>0.7354923333333333</v>
       </c>
       <c r="N8">
-        <v>0.02807</v>
+        <v>2.206477</v>
       </c>
       <c r="O8">
-        <v>0.01176404518868573</v>
+        <v>0.9040737623709638</v>
       </c>
       <c r="P8">
-        <v>0.01176404518868573</v>
+        <v>0.9040737623709638</v>
       </c>
       <c r="Q8">
-        <v>0.008135418938888889</v>
+        <v>0.09615949348055555</v>
       </c>
       <c r="R8">
-        <v>0.07321877045</v>
+        <v>0.8654354413249999</v>
       </c>
       <c r="S8">
-        <v>0.00756292396981841</v>
+        <v>0.07126895633804754</v>
       </c>
       <c r="T8">
-        <v>0.007562923969818411</v>
+        <v>0.07126895633804754</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,25 +962,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.8694783333333334</v>
+        <v>0.1307416666666667</v>
       </c>
       <c r="H9">
-        <v>2.608435</v>
+        <v>0.392225</v>
       </c>
       <c r="I9">
-        <v>0.6428846411685141</v>
+        <v>0.07883090883109173</v>
       </c>
       <c r="J9">
-        <v>0.6428846411685142</v>
+        <v>0.07883090883109173</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,524 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.019095</v>
+        <v>0.078039</v>
       </c>
       <c r="N9">
-        <v>0.057285</v>
+        <v>0.234117</v>
       </c>
       <c r="O9">
-        <v>0.02400795613230717</v>
+        <v>0.09592623762903621</v>
       </c>
       <c r="P9">
-        <v>0.02400795613230716</v>
+        <v>0.09592623762903621</v>
       </c>
       <c r="Q9">
-        <v>0.016602688775</v>
+        <v>0.010202948925</v>
       </c>
       <c r="R9">
-        <v>0.149424198975</v>
+        <v>0.091826540325</v>
       </c>
       <c r="S9">
-        <v>0.01543434626330772</v>
+        <v>0.007561952493044194</v>
       </c>
       <c r="T9">
-        <v>0.01543434626330772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.2757223333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.8271670000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.2038666710044285</v>
-      </c>
-      <c r="J10">
-        <v>0.2038666710044285</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.03141733333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.094252</v>
-      </c>
-      <c r="O10">
-        <v>0.03950070492069852</v>
-      </c>
-      <c r="P10">
-        <v>0.03950070492069852</v>
-      </c>
-      <c r="Q10">
-        <v>0.008662460453777778</v>
-      </c>
-      <c r="R10">
-        <v>0.07796214408400001</v>
-      </c>
-      <c r="S10">
-        <v>0.008052877214511053</v>
-      </c>
-      <c r="T10">
-        <v>0.008052877214511055</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.2757223333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.8271670000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.2038666710044285</v>
-      </c>
-      <c r="J11">
-        <v>0.2038666710044285</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.7354923333333333</v>
-      </c>
-      <c r="N11">
-        <v>2.206477</v>
-      </c>
-      <c r="O11">
-        <v>0.9247272937583086</v>
-      </c>
-      <c r="P11">
-        <v>0.9247272937583086</v>
-      </c>
-      <c r="Q11">
-        <v>0.2027916622954445</v>
-      </c>
-      <c r="R11">
-        <v>1.825124960659</v>
-      </c>
-      <c r="S11">
-        <v>0.1885210749654406</v>
-      </c>
-      <c r="T11">
-        <v>0.1885210749654406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.2757223333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.8271670000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.2038666710044285</v>
-      </c>
-      <c r="J12">
-        <v>0.2038666710044285</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.009356666666666666</v>
-      </c>
-      <c r="N12">
-        <v>0.02807</v>
-      </c>
-      <c r="O12">
-        <v>0.01176404518868573</v>
-      </c>
-      <c r="P12">
-        <v>0.01176404518868573</v>
-      </c>
-      <c r="Q12">
-        <v>0.002579841965555555</v>
-      </c>
-      <c r="R12">
-        <v>0.02321857769</v>
-      </c>
-      <c r="S12">
-        <v>0.002398296730163023</v>
-      </c>
-      <c r="T12">
-        <v>0.002398296730163023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.2757223333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.8271670000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.2038666710044285</v>
-      </c>
-      <c r="J13">
-        <v>0.2038666710044285</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.019095</v>
-      </c>
-      <c r="N13">
-        <v>0.057285</v>
-      </c>
-      <c r="O13">
-        <v>0.02400795613230717</v>
-      </c>
-      <c r="P13">
-        <v>0.02400795613230716</v>
-      </c>
-      <c r="Q13">
-        <v>0.005264917955</v>
-      </c>
-      <c r="R13">
-        <v>0.047384261595</v>
-      </c>
-      <c r="S13">
-        <v>0.004894422094313815</v>
-      </c>
-      <c r="T13">
-        <v>0.004894422094313815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.03373033333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.101191</v>
-      </c>
-      <c r="I14">
-        <v>0.02493991214060658</v>
-      </c>
-      <c r="J14">
-        <v>0.02493991214060658</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.03141733333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.094252</v>
-      </c>
-      <c r="O14">
-        <v>0.03950070492069852</v>
-      </c>
-      <c r="P14">
-        <v>0.03950070492069852</v>
-      </c>
-      <c r="Q14">
-        <v>0.001059717125777778</v>
-      </c>
-      <c r="R14">
-        <v>0.009537454132</v>
-      </c>
-      <c r="S14">
-        <v>0.0009851441102142471</v>
-      </c>
-      <c r="T14">
-        <v>0.0009851441102142471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.03373033333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.101191</v>
-      </c>
-      <c r="I15">
-        <v>0.02493991214060658</v>
-      </c>
-      <c r="J15">
-        <v>0.02493991214060658</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.7354923333333333</v>
-      </c>
-      <c r="N15">
-        <v>2.206477</v>
-      </c>
-      <c r="O15">
-        <v>0.9247272937583086</v>
-      </c>
-      <c r="P15">
-        <v>0.9247272937583086</v>
-      </c>
-      <c r="Q15">
-        <v>0.02480840156744444</v>
-      </c>
-      <c r="R15">
-        <v>0.223275614107</v>
-      </c>
-      <c r="S15">
-        <v>0.02306261746035311</v>
-      </c>
-      <c r="T15">
-        <v>0.02306261746035311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.03373033333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.101191</v>
-      </c>
-      <c r="I16">
-        <v>0.02493991214060658</v>
-      </c>
-      <c r="J16">
-        <v>0.02493991214060658</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.009356666666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.02807</v>
-      </c>
-      <c r="O16">
-        <v>0.01176404518868573</v>
-      </c>
-      <c r="P16">
-        <v>0.01176404518868573</v>
-      </c>
-      <c r="Q16">
-        <v>0.0003156034855555555</v>
-      </c>
-      <c r="R16">
-        <v>0.00284043137</v>
-      </c>
-      <c r="S16">
-        <v>0.0002933942534239476</v>
-      </c>
-      <c r="T16">
-        <v>0.0002933942534239476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.03373033333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.101191</v>
-      </c>
-      <c r="I17">
-        <v>0.02493991214060658</v>
-      </c>
-      <c r="J17">
-        <v>0.02493991214060658</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.019095</v>
-      </c>
-      <c r="N17">
-        <v>0.057285</v>
-      </c>
-      <c r="O17">
-        <v>0.02400795613230717</v>
-      </c>
-      <c r="P17">
-        <v>0.02400795613230716</v>
-      </c>
-      <c r="Q17">
-        <v>0.0006440807150000001</v>
-      </c>
-      <c r="R17">
-        <v>0.005796726435000001</v>
-      </c>
-      <c r="S17">
-        <v>0.0005987563166152776</v>
-      </c>
-      <c r="T17">
-        <v>0.0005987563166152775</v>
+        <v>0.007561952493044194</v>
       </c>
     </row>
   </sheetData>
